--- a/HARD/UKU207xx_POW/Project Outputs for UKU20710_POW/UKU20710_48_mount_list.xlsx
+++ b/HARD/UKU207xx_POW/Project Outputs for UKU20710_POW/UKU20710_48_mount_list.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Designator</t>
   </si>
@@ -151,12 +151,6 @@
     <t>K56</t>
   </si>
   <si>
-    <t>R525, R532, R533</t>
-  </si>
-  <si>
-    <t>33K</t>
-  </si>
-  <si>
     <t>6R8</t>
   </si>
   <si>
@@ -251,16 +245,13 @@
   </si>
   <si>
     <t>8K2</t>
-  </si>
-  <si>
-    <t>убрать!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -302,13 +293,6 @@
       <name val="MS Sans Serif"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -330,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -368,22 +352,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="20"/>
-      </left>
-      <right style="thin">
-        <color indexed="20"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -405,9 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -805,7 +775,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>6</v>
@@ -822,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>6</v>
@@ -839,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>6</v>
@@ -856,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>6</v>
@@ -873,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>6</v>
@@ -890,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>6</v>
@@ -1006,7 +976,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>32</v>
@@ -1023,10 +993,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>6</v>
@@ -1055,9 +1025,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>36</v>
@@ -1072,12 +1042,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -1089,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1106,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>39</v>
       </c>
@@ -1123,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:5">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1140,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
@@ -1157,12 +1127,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>6</v>
@@ -1173,13 +1143,10 @@
       <c r="E23" s="1">
         <v>3</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>47</v>
@@ -1191,10 +1158,10 @@
         <v>33</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
@@ -1211,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -1219,16 +1186,16 @@
         <v>51</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
         <v>52</v>
       </c>
@@ -1236,7 +1203,7 @@
         <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>53</v>
@@ -1245,32 +1212,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>59</v>
@@ -1279,37 +1246,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="E30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="1">
         <v>1</v>
       </c>
     </row>
